--- a/syspro_2nd/d_signal/d_wave_p_s.xlsx
+++ b/syspro_2nd/d_signal/d_wave_p_s.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chasolaptop/test/univ/cfile_syspro/syspro_2nd/d_signal/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chasolaptop/test/univ/cfile_syspro/syspro_2nd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0692BB62-090F-9949-8003-E6C122E12AB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0933FE0E-73AB-2241-B378-AA65033B6E5F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="640" yWindow="960" windowWidth="27900" windowHeight="15600"/>
   </bookViews>
   <sheets>
     <sheet name="d_wave_p_s" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -1995,1201 +1995,1201 @@
                   <c:v>6.0000000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0000000000000002E-6</c:v>
+                  <c:v>0.40527400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5020999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6201E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2609999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.993E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.339E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3879999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7910000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.392E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1119999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5600000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.38E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4600000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.21E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.31E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.46E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.34E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.15E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.06E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.8999999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.6000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4999999999999993E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.6000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.2000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.8999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.5000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.1999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.8999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.6E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.3999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.8999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.6999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.6000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.1999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.9E-5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.5999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.5000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.4000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.3E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.1999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.0999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.9000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.2999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.2999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.9000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2.0999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.1999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.3E-5</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2.4000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.5000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2.5999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2.9E-5</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.1999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.6000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3.6999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3.8999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>4.3999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>4.6E-5</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>4.8999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>5.1999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>5.5000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>5.8999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>6.2000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>6.6000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>7.1000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>7.4999999999999993E-5</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>8.6000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>9.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>9.8999999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1.06E-4</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1.15E-4</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.2400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.34E-4</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.46E-4</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.5899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.9000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2.0900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>2.31E-4</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2.5599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2.8600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3.21E-4</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3.6200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>4.1100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>4.7199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>5.4600000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>6.38E-4</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>7.5600000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>9.0899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.1119999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.392E-3</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.7910000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>2.3879999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3.339E-3</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>4.993E-3</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>8.2609999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.6201E-2</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>4.5020999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="399">
                   <c:v>0.40527400000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5020999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6201E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.2609999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.993E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.339E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.3879999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.7910000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.392E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.1130000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.0899999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.5699999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.3900000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.4699999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.73E-4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.1300000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.6400000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.2299999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.8800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.5900000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.34E-4</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.12E-4</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.93E-4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.7699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.63E-4</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.4999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.3899999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.2899999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.2E-4</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.13E-4</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.06E-4</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>9.8999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>9.3999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>8.8999999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>8.3999999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>8.0000000000000007E-5</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>7.7000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>7.2999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>7.1000000000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>6.7999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>6.6000000000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>6.3999999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>6.2000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>6.0999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>5.8999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>5.8E-5</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>5.7000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>5.7000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>5.5999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>5.5999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>5.5999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>5.5999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>5.7000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>5.7000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>5.8E-5</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>5.8999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>6.0999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>6.2000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>6.3999999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>6.6000000000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>6.7999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>7.1000000000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>7.2999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>7.7000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>8.0000000000000007E-5</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>8.3999999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>8.8999999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>9.3999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>9.8999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>1.06E-4</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>1.13E-4</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>1.2E-4</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>1.2899999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>1.3899999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>1.4999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>1.63E-4</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>1.7699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>1.93E-4</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2.12E-4</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>2.34E-4</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>2.5900000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>2.8800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>3.2299999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>3.6400000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>4.1300000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>4.73E-4</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>5.4699999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>6.3900000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>7.5699999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>9.0899999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>1.1130000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>1.392E-3</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>1.7910000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>2.3879999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>3.339E-3</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>4.993E-3</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>8.2609999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>1.6201E-2</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>4.5020999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>0.40527400000000002</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>6.0000000000000002E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3197,7 +3197,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-23E9-604C-8CBA-6D91660FA97D}"/>
+              <c16:uniqueId val="{00000000-3056-BD46-A7D3-A5D94902F5FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3209,14 +3209,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1162754688"/>
-        <c:axId val="1162159536"/>
+        <c:axId val="1100728640"/>
+        <c:axId val="1156403728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1162754688"/>
+        <c:axId val="1100728640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3271,12 +3270,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162159536"/>
+        <c:crossAx val="1156403728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162159536"/>
+        <c:axId val="1156403728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3333,7 +3332,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162754688"/>
+        <c:crossAx val="1100728640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4655,1201 +4654,1201 @@
                   <c:v>6.0000000000000002E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0000000000000002E-6</c:v>
+                  <c:v>0.40527400000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5020999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6201E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2609999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.993E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.339E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3879999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7910000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.392E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.1119999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.0899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5600000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.38E-4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.4600000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.7199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.1100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.6200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.21E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.5599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.31E-4</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2.0900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.9000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.5899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.46E-4</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.34E-4</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.2400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.15E-4</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.06E-4</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>9.8999999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>9.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>8.6000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>7.4999999999999993E-5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.1000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.6000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6.2000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.8999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.5000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.1999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>4.8999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>4.6E-5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.3999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.8999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.6999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.6000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.1999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.9E-5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.5999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2.5000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2.4000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2.3E-5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2.1999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2.0999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.9000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.2999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6.9999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>7.9999999999999996E-6</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>9.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1.1E-5</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>1.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.2999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>1.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>1.5E-5</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>1.5999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>1.7E-5</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>1.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>1.9000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>2.0000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>2.0999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>2.1999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>2.3E-5</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>2.4000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>2.5000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>2.5999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>2.8E-5</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>2.9E-5</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>3.0000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>3.1999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>3.4E-5</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>3.6000000000000001E-5</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>3.6999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>3.8999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>4.1999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>4.3999999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>4.6E-5</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>4.8999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>5.1999999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>5.5000000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>5.8999999999999998E-5</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>6.2000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>6.6000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>7.1000000000000005E-5</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>7.4999999999999993E-5</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>8.6000000000000003E-5</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>9.2E-5</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>9.8999999999999994E-5</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1.06E-4</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1.15E-4</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.2400000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.34E-4</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.46E-4</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.5899999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.73E-4</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.9000000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>2.0900000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>2.31E-4</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>2.5599999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>2.8600000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>3.21E-4</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>3.6200000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>4.1100000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>4.7199999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>5.4600000000000004E-4</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>6.38E-4</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>7.5600000000000005E-4</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>9.0899999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>1.1119999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>1.392E-3</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>1.7910000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>2.3879999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>3.339E-3</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>4.993E-3</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>8.2609999999999992E-3</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>1.6201E-2</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>4.5020999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>6.0000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="399">
                   <c:v>0.40527400000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.5020999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.6201E-2</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.2609999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>4.993E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.339E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.3879999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.7910000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.392E-3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.1130000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>9.0899999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>7.5699999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.3900000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>5.4699999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>4.73E-4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>4.1300000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.6400000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>3.2299999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>2.8800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>2.5900000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>2.34E-4</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>2.12E-4</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.93E-4</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1.7699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1.63E-4</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1.4999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.3899999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1.2899999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1.2E-4</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.13E-4</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1.06E-4</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>9.8999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>9.3999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>8.8999999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>8.3999999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>8.0000000000000007E-5</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>7.7000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>7.2999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>7.1000000000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>6.7999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>6.6000000000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>6.3999999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>6.2000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>6.0999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>5.8999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>5.8E-5</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>5.7000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>5.7000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>5.5999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>5.5999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>5.5999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>5.5999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>5.7000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>5.7000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>5.8E-5</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>5.8999999999999998E-5</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>6.0999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>6.2000000000000003E-5</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>6.3999999999999997E-5</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>6.6000000000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>6.7999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>7.1000000000000005E-5</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>7.2999999999999999E-5</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>7.7000000000000001E-5</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="258">
-                  <c:v>8.0000000000000007E-5</c:v>
-                </c:pt>
-                <c:pt idx="259">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="260">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="261">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="262">
-                  <c:v>8.3999999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="263">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="264">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="265">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="266">
-                  <c:v>8.8999999999999995E-5</c:v>
-                </c:pt>
-                <c:pt idx="267">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="268">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="269">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="270">
-                  <c:v>9.3999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="271">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="272">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="273">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="274">
-                  <c:v>9.8999999999999994E-5</c:v>
-                </c:pt>
-                <c:pt idx="275">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="276">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="277">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="278">
-                  <c:v>1.06E-4</c:v>
-                </c:pt>
-                <c:pt idx="279">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="280">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="281">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="282">
-                  <c:v>1.13E-4</c:v>
-                </c:pt>
-                <c:pt idx="283">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="284">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="285">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="286">
-                  <c:v>1.2E-4</c:v>
-                </c:pt>
-                <c:pt idx="287">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="288">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="289">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="290">
-                  <c:v>1.2899999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="291">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="292">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="293">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="294">
-                  <c:v>1.3899999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="295">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="296">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="297">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="298">
-                  <c:v>1.4999999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="299">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="300">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="301">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="302">
-                  <c:v>1.63E-4</c:v>
-                </c:pt>
-                <c:pt idx="303">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="304">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="305">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="306">
-                  <c:v>1.7699999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="307">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="308">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="309">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="310">
-                  <c:v>1.93E-4</c:v>
-                </c:pt>
-                <c:pt idx="311">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="312">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="313">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="314">
-                  <c:v>2.12E-4</c:v>
-                </c:pt>
-                <c:pt idx="315">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="316">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="317">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="318">
-                  <c:v>2.34E-4</c:v>
-                </c:pt>
-                <c:pt idx="319">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="320">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="321">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="322">
-                  <c:v>2.5900000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="323">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="324">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="325">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="326">
-                  <c:v>2.8800000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="327">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="328">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="329">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="330">
-                  <c:v>3.2299999999999999E-4</c:v>
-                </c:pt>
-                <c:pt idx="331">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="332">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="333">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="334">
-                  <c:v>3.6400000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="335">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="336">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="337">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="338">
-                  <c:v>4.1300000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="339">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="340">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="341">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="342">
-                  <c:v>4.73E-4</c:v>
-                </c:pt>
-                <c:pt idx="343">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="344">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="345">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="346">
-                  <c:v>5.4699999999999996E-4</c:v>
-                </c:pt>
-                <c:pt idx="347">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="348">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="349">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="350">
-                  <c:v>6.3900000000000003E-4</c:v>
-                </c:pt>
-                <c:pt idx="351">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="352">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="353">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="354">
-                  <c:v>7.5699999999999997E-4</c:v>
-                </c:pt>
-                <c:pt idx="355">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="356">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="357">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="358">
-                  <c:v>9.0899999999999998E-4</c:v>
-                </c:pt>
-                <c:pt idx="359">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="360">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="361">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="362">
-                  <c:v>1.1130000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="363">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="364">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="365">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="366">
-                  <c:v>1.392E-3</c:v>
-                </c:pt>
-                <c:pt idx="367">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="368">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="369">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="370">
-                  <c:v>1.7910000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="371">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="372">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="373">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="374">
-                  <c:v>2.3879999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="375">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="376">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="377">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="378">
-                  <c:v>3.339E-3</c:v>
-                </c:pt>
-                <c:pt idx="379">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="380">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="381">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="382">
-                  <c:v>4.993E-3</c:v>
-                </c:pt>
-                <c:pt idx="383">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="384">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="385">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="386">
-                  <c:v>8.2609999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="387">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="388">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="389">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="390">
-                  <c:v>1.6201E-2</c:v>
-                </c:pt>
-                <c:pt idx="391">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="392">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="393">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="394">
-                  <c:v>4.5020999999999999E-2</c:v>
-                </c:pt>
-                <c:pt idx="395">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="396">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="397">
-                  <c:v>6.0000000000000002E-6</c:v>
-                </c:pt>
-                <c:pt idx="398">
-                  <c:v>0.40527400000000002</c:v>
-                </c:pt>
-                <c:pt idx="399">
-                  <c:v>6.0000000000000002E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5857,7 +5856,7 @@
           <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-483D-3E4A-9D4C-780EB52779B2}"/>
+              <c16:uniqueId val="{00000000-B0E9-1845-BB8F-DDE2DFD19DE2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -5869,14 +5868,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1162754688"/>
-        <c:axId val="1162159536"/>
+        <c:axId val="1100728640"/>
+        <c:axId val="1156403728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1162754688"/>
+        <c:axId val="1100728640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="400"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5931,15 +5929,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162159536"/>
+        <c:crossAx val="1156403728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162159536"/>
+        <c:axId val="1156403728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="-"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5994,7 +5991,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162754688"/>
+        <c:crossAx val="1100728640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7173,7 +7170,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>767205</xdr:colOff>
+      <xdr:colOff>762000</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:to>
@@ -7182,7 +7179,7 @@
         <xdr:cNvPr id="3" name="グラフ 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0675835F-2A14-A24E-A79E-BE53AADDAE94}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{571F3603-071E-8C4D-A4E7-59B425E7B995}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7204,23 +7201,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>213360</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>16934</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>122018</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="グラフ 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A4D7F0-8B4B-9B42-8055-AEF51489E35B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D329F7C1-2888-C647-8FA3-94EA2F990B51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7539,10 +7536,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B400"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
@@ -7561,7 +7558,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.0000000000000002E-6</v>
+        <v>0.40527400000000002</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -7569,7 +7566,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.40527400000000002</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -7577,7 +7574,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>6.0000000000000002E-6</v>
+        <v>4.5020999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -7593,7 +7590,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>6.0000000000000002E-6</v>
+        <v>1.6201E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -7601,7 +7598,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>4.5020999999999999E-2</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -7609,7 +7606,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>6.0000000000000002E-6</v>
+        <v>8.2609999999999992E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -7625,7 +7622,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>6.0000000000000002E-6</v>
+        <v>4.993E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -7633,7 +7630,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1.6201E-2</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -7641,7 +7638,7 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>6.0000000000000002E-6</v>
+        <v>3.339E-3</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -7657,7 +7654,7 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>6.0000000000000002E-6</v>
+        <v>2.3879999999999999E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -7665,7 +7662,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>8.2609999999999992E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -7673,7 +7670,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>6.0000000000000002E-6</v>
+        <v>1.7910000000000001E-3</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -7689,7 +7686,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>6.0000000000000002E-6</v>
+        <v>1.392E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -7697,7 +7694,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>4.993E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -7705,7 +7702,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>6.0000000000000002E-6</v>
+        <v>1.1119999999999999E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -7721,7 +7718,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>6.0000000000000002E-6</v>
+        <v>9.0899999999999998E-4</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -7729,7 +7726,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>3.339E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -7737,7 +7734,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>6.0000000000000002E-6</v>
+        <v>7.5600000000000005E-4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -7753,7 +7750,7 @@
         <v>25</v>
       </c>
       <c r="B26">
-        <v>6.0000000000000002E-6</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -7761,7 +7758,7 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>2.3879999999999999E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -7769,7 +7766,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>6.0000000000000002E-6</v>
+        <v>5.4600000000000004E-4</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -7785,7 +7782,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>6.0000000000000002E-6</v>
+        <v>4.7199999999999998E-4</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -7793,7 +7790,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1.7910000000000001E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -7801,7 +7798,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>6.0000000000000002E-6</v>
+        <v>4.1100000000000002E-4</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -7817,7 +7814,7 @@
         <v>33</v>
       </c>
       <c r="B34">
-        <v>6.0000000000000002E-6</v>
+        <v>3.6200000000000002E-4</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -7825,7 +7822,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>1.392E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -7833,7 +7830,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>6.0000000000000002E-6</v>
+        <v>3.21E-4</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -7849,7 +7846,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>6.0000000000000002E-6</v>
+        <v>2.8600000000000001E-4</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -7857,7 +7854,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>1.1130000000000001E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -7865,7 +7862,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>6.0000000000000002E-6</v>
+        <v>2.5599999999999999E-4</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -7881,7 +7878,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>6.0000000000000002E-6</v>
+        <v>2.31E-4</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -7889,7 +7886,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>9.0899999999999998E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -7897,7 +7894,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>6.0000000000000002E-6</v>
+        <v>2.0900000000000001E-4</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -7913,7 +7910,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>6.0000000000000002E-6</v>
+        <v>1.9000000000000001E-4</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -7921,7 +7918,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7.5699999999999997E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -7929,7 +7926,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>6.0000000000000002E-6</v>
+        <v>1.73E-4</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -7945,7 +7942,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>6.0000000000000002E-6</v>
+        <v>1.5899999999999999E-4</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -7953,7 +7950,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>6.3900000000000003E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -7961,7 +7958,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>6.0000000000000002E-6</v>
+        <v>1.46E-4</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -7977,7 +7974,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>6.0000000000000002E-6</v>
+        <v>1.34E-4</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -7985,7 +7982,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>5.4699999999999996E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -7993,7 +7990,7 @@
         <v>55</v>
       </c>
       <c r="B56">
-        <v>6.0000000000000002E-6</v>
+        <v>1.2400000000000001E-4</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -8009,7 +8006,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>6.0000000000000002E-6</v>
+        <v>1.15E-4</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -8017,7 +8014,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>4.73E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -8025,7 +8022,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>6.0000000000000002E-6</v>
+        <v>1.06E-4</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -8041,7 +8038,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>6.0000000000000002E-6</v>
+        <v>9.8999999999999994E-5</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -8049,7 +8046,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>4.1300000000000001E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -8057,7 +8054,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>6.0000000000000002E-6</v>
+        <v>9.2E-5</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -8073,7 +8070,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>6.0000000000000002E-6</v>
+        <v>8.6000000000000003E-5</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -8081,7 +8078,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>3.6400000000000001E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -8089,7 +8086,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>6.0000000000000002E-6</v>
+        <v>8.0000000000000007E-5</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -8105,7 +8102,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>6.0000000000000002E-6</v>
+        <v>7.4999999999999993E-5</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -8113,7 +8110,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>3.2299999999999999E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -8121,7 +8118,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>6.0000000000000002E-6</v>
+        <v>7.1000000000000005E-5</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -8137,7 +8134,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>6.0000000000000002E-6</v>
+        <v>6.6000000000000005E-5</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -8145,7 +8142,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>2.8800000000000001E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -8153,7 +8150,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>6.0000000000000002E-6</v>
+        <v>6.2000000000000003E-5</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -8169,7 +8166,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>6.0000000000000002E-6</v>
+        <v>5.8999999999999998E-5</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -8177,7 +8174,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>2.5900000000000001E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -8185,7 +8182,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>6.0000000000000002E-6</v>
+        <v>5.5000000000000002E-5</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -8201,7 +8198,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>6.0000000000000002E-6</v>
+        <v>5.1999999999999997E-5</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -8209,7 +8206,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>2.34E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -8217,7 +8214,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>6.0000000000000002E-6</v>
+        <v>4.8999999999999998E-5</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -8233,7 +8230,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>6.0000000000000002E-6</v>
+        <v>4.6E-5</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -8241,7 +8238,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>2.12E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -8249,7 +8246,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>6.0000000000000002E-6</v>
+        <v>4.3999999999999999E-5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -8265,7 +8262,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>6.0000000000000002E-6</v>
+        <v>4.1999999999999998E-5</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -8273,7 +8270,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>1.93E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -8281,7 +8278,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>6.0000000000000002E-6</v>
+        <v>3.8999999999999999E-5</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -8297,7 +8294,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>6.0000000000000002E-6</v>
+        <v>3.6999999999999998E-5</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -8305,7 +8302,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>1.7699999999999999E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -8313,7 +8310,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>6.0000000000000002E-6</v>
+        <v>3.6000000000000001E-5</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -8329,7 +8326,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>6.0000000000000002E-6</v>
+        <v>3.4E-5</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -8337,7 +8334,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>1.63E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -8345,7 +8342,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>6.0000000000000002E-6</v>
+        <v>3.1999999999999999E-5</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -8361,7 +8358,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>6.0000000000000002E-6</v>
+        <v>3.0000000000000001E-5</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -8369,7 +8366,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>1.4999999999999999E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -8377,7 +8374,7 @@
         <v>103</v>
       </c>
       <c r="B104">
-        <v>6.0000000000000002E-6</v>
+        <v>2.9E-5</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -8393,7 +8390,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>6.0000000000000002E-6</v>
+        <v>2.8E-5</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -8401,7 +8398,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>1.3899999999999999E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -8409,7 +8406,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>6.0000000000000002E-6</v>
+        <v>2.5999999999999998E-5</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -8425,7 +8422,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>6.0000000000000002E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -8433,7 +8430,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>1.2899999999999999E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -8441,7 +8438,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>6.0000000000000002E-6</v>
+        <v>2.4000000000000001E-5</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -8457,7 +8454,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>6.0000000000000002E-6</v>
+        <v>2.3E-5</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -8465,7 +8462,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>1.2E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -8473,7 +8470,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>6.0000000000000002E-6</v>
+        <v>2.1999999999999999E-5</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -8489,7 +8486,7 @@
         <v>117</v>
       </c>
       <c r="B118">
-        <v>6.0000000000000002E-6</v>
+        <v>2.0999999999999999E-5</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -8497,7 +8494,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>1.13E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -8505,7 +8502,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>6.0000000000000002E-6</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -8521,7 +8518,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>6.0000000000000002E-6</v>
+        <v>1.9000000000000001E-5</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -8529,7 +8526,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>1.06E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -8537,7 +8534,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>6.0000000000000002E-6</v>
+        <v>1.8E-5</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -8553,7 +8550,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>6.0000000000000002E-6</v>
+        <v>1.7E-5</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -8561,7 +8558,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>9.8999999999999994E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -8569,7 +8566,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>6.0000000000000002E-6</v>
+        <v>1.7E-5</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -8585,7 +8582,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>6.0000000000000002E-6</v>
+        <v>1.5999999999999999E-5</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -8593,7 +8590,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>9.3999999999999994E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -8601,7 +8598,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>6.0000000000000002E-6</v>
+        <v>1.5E-5</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -8617,7 +8614,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>6.0000000000000002E-6</v>
+        <v>1.5E-5</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -8625,7 +8622,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>8.8999999999999995E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -8633,7 +8630,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>6.0000000000000002E-6</v>
+        <v>1.4E-5</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -8649,7 +8646,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>6.0000000000000002E-6</v>
+        <v>1.4E-5</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -8657,7 +8654,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>8.3999999999999995E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -8665,7 +8662,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>6.0000000000000002E-6</v>
+        <v>1.2999999999999999E-5</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -8681,7 +8678,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>6.0000000000000002E-6</v>
+        <v>1.2E-5</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -8689,7 +8686,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>8.0000000000000007E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -8697,7 +8694,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>6.0000000000000002E-6</v>
+        <v>1.2E-5</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -8713,7 +8710,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>6.0000000000000002E-6</v>
+        <v>1.2E-5</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -8721,7 +8718,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7.7000000000000001E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -8729,7 +8726,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>6.0000000000000002E-6</v>
+        <v>1.1E-5</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -8745,7 +8742,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>6.0000000000000002E-6</v>
+        <v>1.1E-5</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -8753,7 +8750,7 @@
         <v>150</v>
       </c>
       <c r="B151">
-        <v>7.2999999999999999E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -8761,7 +8758,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>6.0000000000000002E-6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -8777,7 +8774,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>6.0000000000000002E-6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -8785,7 +8782,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>7.1000000000000005E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -8793,7 +8790,7 @@
         <v>155</v>
       </c>
       <c r="B156">
-        <v>6.0000000000000002E-6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -8809,7 +8806,7 @@
         <v>157</v>
       </c>
       <c r="B158">
-        <v>6.0000000000000002E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -8817,7 +8814,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>6.7999999999999999E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -8825,7 +8822,7 @@
         <v>159</v>
       </c>
       <c r="B160">
-        <v>6.0000000000000002E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -8841,7 +8838,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>6.0000000000000002E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -8849,7 +8846,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>6.6000000000000005E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -8857,7 +8854,7 @@
         <v>163</v>
       </c>
       <c r="B164">
-        <v>6.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -8873,7 +8870,7 @@
         <v>165</v>
       </c>
       <c r="B166">
-        <v>6.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -8881,7 +8878,7 @@
         <v>166</v>
       </c>
       <c r="B167">
-        <v>6.3999999999999997E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -8889,7 +8886,7 @@
         <v>167</v>
       </c>
       <c r="B168">
-        <v>6.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -8905,7 +8902,7 @@
         <v>169</v>
       </c>
       <c r="B170">
-        <v>6.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -8913,7 +8910,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>6.2000000000000003E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -8921,7 +8918,7 @@
         <v>171</v>
       </c>
       <c r="B172">
-        <v>6.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -8937,7 +8934,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -8945,7 +8942,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>6.0999999999999999E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -8953,7 +8950,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -8969,7 +8966,7 @@
         <v>177</v>
       </c>
       <c r="B178">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -8977,7 +8974,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>5.8999999999999998E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -8985,7 +8982,7 @@
         <v>179</v>
       </c>
       <c r="B180">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -9001,7 +8998,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -9009,7 +9006,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>5.8E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -9017,7 +9014,7 @@
         <v>183</v>
       </c>
       <c r="B184">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -9033,7 +9030,7 @@
         <v>185</v>
       </c>
       <c r="B186">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -9041,7 +9038,7 @@
         <v>186</v>
       </c>
       <c r="B187">
-        <v>5.7000000000000003E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -9049,7 +9046,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -9073,7 +9070,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>5.7000000000000003E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -9105,7 +9102,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>5.5999999999999999E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -9137,7 +9134,7 @@
         <v>198</v>
       </c>
       <c r="B199">
-        <v>5.5999999999999999E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -9169,7 +9166,7 @@
         <v>202</v>
       </c>
       <c r="B203">
-        <v>5.5999999999999999E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -9201,7 +9198,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>5.5999999999999999E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -9233,7 +9230,7 @@
         <v>210</v>
       </c>
       <c r="B211">
-        <v>5.7000000000000003E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -9257,7 +9254,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -9265,7 +9262,7 @@
         <v>214</v>
       </c>
       <c r="B215">
-        <v>5.7000000000000003E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -9273,7 +9270,7 @@
         <v>215</v>
       </c>
       <c r="B216">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -9289,7 +9286,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -9297,7 +9294,7 @@
         <v>218</v>
       </c>
       <c r="B219">
-        <v>5.8E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -9305,7 +9302,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -9321,7 +9318,7 @@
         <v>221</v>
       </c>
       <c r="B222">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -9329,7 +9326,7 @@
         <v>222</v>
       </c>
       <c r="B223">
-        <v>5.8999999999999998E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -9337,7 +9334,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -9353,7 +9350,7 @@
         <v>225</v>
       </c>
       <c r="B226">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -9361,7 +9358,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>6.0999999999999999E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -9369,7 +9366,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>6.0000000000000002E-6</v>
+        <v>6.9999999999999999E-6</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -9385,7 +9382,7 @@
         <v>229</v>
       </c>
       <c r="B230">
-        <v>6.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -9393,7 +9390,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>6.2000000000000003E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -9401,7 +9398,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>6.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -9417,7 +9414,7 @@
         <v>233</v>
       </c>
       <c r="B234">
-        <v>6.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -9425,7 +9422,7 @@
         <v>234</v>
       </c>
       <c r="B235">
-        <v>6.3999999999999997E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -9433,7 +9430,7 @@
         <v>235</v>
       </c>
       <c r="B236">
-        <v>6.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -9449,7 +9446,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>6.0000000000000002E-6</v>
+        <v>7.9999999999999996E-6</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -9457,7 +9454,7 @@
         <v>238</v>
       </c>
       <c r="B239">
-        <v>6.6000000000000005E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -9465,7 +9462,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>6.0000000000000002E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -9481,7 +9478,7 @@
         <v>241</v>
       </c>
       <c r="B242">
-        <v>6.0000000000000002E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -9489,7 +9486,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>6.7999999999999999E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -9497,7 +9494,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>6.0000000000000002E-6</v>
+        <v>9.0000000000000002E-6</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -9513,7 +9510,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>6.0000000000000002E-6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -9521,7 +9518,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>7.1000000000000005E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -9529,7 +9526,7 @@
         <v>247</v>
       </c>
       <c r="B248">
-        <v>6.0000000000000002E-6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -9545,7 +9542,7 @@
         <v>249</v>
       </c>
       <c r="B250">
-        <v>6.0000000000000002E-6</v>
+        <v>1.0000000000000001E-5</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -9553,7 +9550,7 @@
         <v>250</v>
       </c>
       <c r="B251">
-        <v>7.2999999999999999E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -9561,7 +9558,7 @@
         <v>251</v>
       </c>
       <c r="B252">
-        <v>6.0000000000000002E-6</v>
+        <v>1.1E-5</v>
       </c>
     </row>
     <row r="253" spans="1:2">
@@ -9577,7 +9574,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>6.0000000000000002E-6</v>
+        <v>1.1E-5</v>
       </c>
     </row>
     <row r="255" spans="1:2">
@@ -9585,7 +9582,7 @@
         <v>254</v>
       </c>
       <c r="B255">
-        <v>7.7000000000000001E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="256" spans="1:2">
@@ -9593,7 +9590,7 @@
         <v>255</v>
       </c>
       <c r="B256">
-        <v>6.0000000000000002E-6</v>
+        <v>1.2E-5</v>
       </c>
     </row>
     <row r="257" spans="1:2">
@@ -9609,7 +9606,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>6.0000000000000002E-6</v>
+        <v>1.2E-5</v>
       </c>
     </row>
     <row r="259" spans="1:2">
@@ -9617,7 +9614,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>8.0000000000000007E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="260" spans="1:2">
@@ -9625,7 +9622,7 @@
         <v>259</v>
       </c>
       <c r="B260">
-        <v>6.0000000000000002E-6</v>
+        <v>1.2E-5</v>
       </c>
     </row>
     <row r="261" spans="1:2">
@@ -9641,7 +9638,7 @@
         <v>261</v>
       </c>
       <c r="B262">
-        <v>6.0000000000000002E-6</v>
+        <v>1.2999999999999999E-5</v>
       </c>
     </row>
     <row r="263" spans="1:2">
@@ -9649,7 +9646,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>8.3999999999999995E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="264" spans="1:2">
@@ -9657,7 +9654,7 @@
         <v>263</v>
       </c>
       <c r="B264">
-        <v>6.0000000000000002E-6</v>
+        <v>1.4E-5</v>
       </c>
     </row>
     <row r="265" spans="1:2">
@@ -9673,7 +9670,7 @@
         <v>265</v>
       </c>
       <c r="B266">
-        <v>6.0000000000000002E-6</v>
+        <v>1.4E-5</v>
       </c>
     </row>
     <row r="267" spans="1:2">
@@ -9681,7 +9678,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>8.8999999999999995E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="268" spans="1:2">
@@ -9689,7 +9686,7 @@
         <v>267</v>
       </c>
       <c r="B268">
-        <v>6.0000000000000002E-6</v>
+        <v>1.5E-5</v>
       </c>
     </row>
     <row r="269" spans="1:2">
@@ -9705,7 +9702,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>6.0000000000000002E-6</v>
+        <v>1.5E-5</v>
       </c>
     </row>
     <row r="271" spans="1:2">
@@ -9713,7 +9710,7 @@
         <v>270</v>
       </c>
       <c r="B271">
-        <v>9.3999999999999994E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="272" spans="1:2">
@@ -9721,7 +9718,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>6.0000000000000002E-6</v>
+        <v>1.5999999999999999E-5</v>
       </c>
     </row>
     <row r="273" spans="1:2">
@@ -9737,7 +9734,7 @@
         <v>273</v>
       </c>
       <c r="B274">
-        <v>6.0000000000000002E-6</v>
+        <v>1.7E-5</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -9745,7 +9742,7 @@
         <v>274</v>
       </c>
       <c r="B275">
-        <v>9.8999999999999994E-5</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="276" spans="1:2">
@@ -9753,7 +9750,7 @@
         <v>275</v>
       </c>
       <c r="B276">
-        <v>6.0000000000000002E-6</v>
+        <v>1.7E-5</v>
       </c>
     </row>
     <row r="277" spans="1:2">
@@ -9769,7 +9766,7 @@
         <v>277</v>
       </c>
       <c r="B278">
-        <v>6.0000000000000002E-6</v>
+        <v>1.8E-5</v>
       </c>
     </row>
     <row r="279" spans="1:2">
@@ -9777,7 +9774,7 @@
         <v>278</v>
       </c>
       <c r="B279">
-        <v>1.06E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="280" spans="1:2">
@@ -9785,7 +9782,7 @@
         <v>279</v>
       </c>
       <c r="B280">
-        <v>6.0000000000000002E-6</v>
+        <v>1.9000000000000001E-5</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -9801,7 +9798,7 @@
         <v>281</v>
       </c>
       <c r="B282">
-        <v>6.0000000000000002E-6</v>
+        <v>2.0000000000000002E-5</v>
       </c>
     </row>
     <row r="283" spans="1:2">
@@ -9809,7 +9806,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>1.13E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="284" spans="1:2">
@@ -9817,7 +9814,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>6.0000000000000002E-6</v>
+        <v>2.0999999999999999E-5</v>
       </c>
     </row>
     <row r="285" spans="1:2">
@@ -9833,7 +9830,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>6.0000000000000002E-6</v>
+        <v>2.1999999999999999E-5</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -9841,7 +9838,7 @@
         <v>286</v>
       </c>
       <c r="B287">
-        <v>1.2E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="288" spans="1:2">
@@ -9849,7 +9846,7 @@
         <v>287</v>
       </c>
       <c r="B288">
-        <v>6.0000000000000002E-6</v>
+        <v>2.3E-5</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -9865,7 +9862,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>6.0000000000000002E-6</v>
+        <v>2.4000000000000001E-5</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -9873,7 +9870,7 @@
         <v>290</v>
       </c>
       <c r="B291">
-        <v>1.2899999999999999E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -9881,7 +9878,7 @@
         <v>291</v>
       </c>
       <c r="B292">
-        <v>6.0000000000000002E-6</v>
+        <v>2.5000000000000001E-5</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -9897,7 +9894,7 @@
         <v>293</v>
       </c>
       <c r="B294">
-        <v>6.0000000000000002E-6</v>
+        <v>2.5999999999999998E-5</v>
       </c>
     </row>
     <row r="295" spans="1:2">
@@ -9905,7 +9902,7 @@
         <v>294</v>
       </c>
       <c r="B295">
-        <v>1.3899999999999999E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="296" spans="1:2">
@@ -9913,7 +9910,7 @@
         <v>295</v>
       </c>
       <c r="B296">
-        <v>6.0000000000000002E-6</v>
+        <v>2.8E-5</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -9929,7 +9926,7 @@
         <v>297</v>
       </c>
       <c r="B298">
-        <v>6.0000000000000002E-6</v>
+        <v>2.9E-5</v>
       </c>
     </row>
     <row r="299" spans="1:2">
@@ -9937,7 +9934,7 @@
         <v>298</v>
       </c>
       <c r="B299">
-        <v>1.4999999999999999E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="300" spans="1:2">
@@ -9945,7 +9942,7 @@
         <v>299</v>
       </c>
       <c r="B300">
-        <v>6.0000000000000002E-6</v>
+        <v>3.0000000000000001E-5</v>
       </c>
     </row>
     <row r="301" spans="1:2">
@@ -9961,7 +9958,7 @@
         <v>301</v>
       </c>
       <c r="B302">
-        <v>6.0000000000000002E-6</v>
+        <v>3.1999999999999999E-5</v>
       </c>
     </row>
     <row r="303" spans="1:2">
@@ -9969,7 +9966,7 @@
         <v>302</v>
       </c>
       <c r="B303">
-        <v>1.63E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="304" spans="1:2">
@@ -9977,7 +9974,7 @@
         <v>303</v>
       </c>
       <c r="B304">
-        <v>6.0000000000000002E-6</v>
+        <v>3.4E-5</v>
       </c>
     </row>
     <row r="305" spans="1:2">
@@ -9993,7 +9990,7 @@
         <v>305</v>
       </c>
       <c r="B306">
-        <v>6.0000000000000002E-6</v>
+        <v>3.6000000000000001E-5</v>
       </c>
     </row>
     <row r="307" spans="1:2">
@@ -10001,7 +9998,7 @@
         <v>306</v>
       </c>
       <c r="B307">
-        <v>1.7699999999999999E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="308" spans="1:2">
@@ -10009,7 +10006,7 @@
         <v>307</v>
       </c>
       <c r="B308">
-        <v>6.0000000000000002E-6</v>
+        <v>3.6999999999999998E-5</v>
       </c>
     </row>
     <row r="309" spans="1:2">
@@ -10025,7 +10022,7 @@
         <v>309</v>
       </c>
       <c r="B310">
-        <v>6.0000000000000002E-6</v>
+        <v>3.8999999999999999E-5</v>
       </c>
     </row>
     <row r="311" spans="1:2">
@@ -10033,7 +10030,7 @@
         <v>310</v>
       </c>
       <c r="B311">
-        <v>1.93E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="312" spans="1:2">
@@ -10041,7 +10038,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>6.0000000000000002E-6</v>
+        <v>4.1999999999999998E-5</v>
       </c>
     </row>
     <row r="313" spans="1:2">
@@ -10057,7 +10054,7 @@
         <v>313</v>
       </c>
       <c r="B314">
-        <v>6.0000000000000002E-6</v>
+        <v>4.3999999999999999E-5</v>
       </c>
     </row>
     <row r="315" spans="1:2">
@@ -10065,7 +10062,7 @@
         <v>314</v>
       </c>
       <c r="B315">
-        <v>2.12E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -10073,7 +10070,7 @@
         <v>315</v>
       </c>
       <c r="B316">
-        <v>6.0000000000000002E-6</v>
+        <v>4.6E-5</v>
       </c>
     </row>
     <row r="317" spans="1:2">
@@ -10089,7 +10086,7 @@
         <v>317</v>
       </c>
       <c r="B318">
-        <v>6.0000000000000002E-6</v>
+        <v>4.8999999999999998E-5</v>
       </c>
     </row>
     <row r="319" spans="1:2">
@@ -10097,7 +10094,7 @@
         <v>318</v>
       </c>
       <c r="B319">
-        <v>2.34E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -10105,7 +10102,7 @@
         <v>319</v>
       </c>
       <c r="B320">
-        <v>6.0000000000000002E-6</v>
+        <v>5.1999999999999997E-5</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -10121,7 +10118,7 @@
         <v>321</v>
       </c>
       <c r="B322">
-        <v>6.0000000000000002E-6</v>
+        <v>5.5000000000000002E-5</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -10129,7 +10126,7 @@
         <v>322</v>
       </c>
       <c r="B323">
-        <v>2.5900000000000001E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="324" spans="1:2">
@@ -10137,7 +10134,7 @@
         <v>323</v>
       </c>
       <c r="B324">
-        <v>6.0000000000000002E-6</v>
+        <v>5.8999999999999998E-5</v>
       </c>
     </row>
     <row r="325" spans="1:2">
@@ -10153,7 +10150,7 @@
         <v>325</v>
       </c>
       <c r="B326">
-        <v>6.0000000000000002E-6</v>
+        <v>6.2000000000000003E-5</v>
       </c>
     </row>
     <row r="327" spans="1:2">
@@ -10161,7 +10158,7 @@
         <v>326</v>
       </c>
       <c r="B327">
-        <v>2.8800000000000001E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="328" spans="1:2">
@@ -10169,7 +10166,7 @@
         <v>327</v>
       </c>
       <c r="B328">
-        <v>6.0000000000000002E-6</v>
+        <v>6.6000000000000005E-5</v>
       </c>
     </row>
     <row r="329" spans="1:2">
@@ -10185,7 +10182,7 @@
         <v>329</v>
       </c>
       <c r="B330">
-        <v>6.0000000000000002E-6</v>
+        <v>7.1000000000000005E-5</v>
       </c>
     </row>
     <row r="331" spans="1:2">
@@ -10193,7 +10190,7 @@
         <v>330</v>
       </c>
       <c r="B331">
-        <v>3.2299999999999999E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="332" spans="1:2">
@@ -10201,7 +10198,7 @@
         <v>331</v>
       </c>
       <c r="B332">
-        <v>6.0000000000000002E-6</v>
+        <v>7.4999999999999993E-5</v>
       </c>
     </row>
     <row r="333" spans="1:2">
@@ -10217,7 +10214,7 @@
         <v>333</v>
       </c>
       <c r="B334">
-        <v>6.0000000000000002E-6</v>
+        <v>8.0000000000000007E-5</v>
       </c>
     </row>
     <row r="335" spans="1:2">
@@ -10225,7 +10222,7 @@
         <v>334</v>
       </c>
       <c r="B335">
-        <v>3.6400000000000001E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="336" spans="1:2">
@@ -10233,7 +10230,7 @@
         <v>335</v>
       </c>
       <c r="B336">
-        <v>6.0000000000000002E-6</v>
+        <v>8.6000000000000003E-5</v>
       </c>
     </row>
     <row r="337" spans="1:2">
@@ -10249,7 +10246,7 @@
         <v>337</v>
       </c>
       <c r="B338">
-        <v>6.0000000000000002E-6</v>
+        <v>9.2E-5</v>
       </c>
     </row>
     <row r="339" spans="1:2">
@@ -10257,7 +10254,7 @@
         <v>338</v>
       </c>
       <c r="B339">
-        <v>4.1300000000000001E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="340" spans="1:2">
@@ -10265,7 +10262,7 @@
         <v>339</v>
       </c>
       <c r="B340">
-        <v>6.0000000000000002E-6</v>
+        <v>9.8999999999999994E-5</v>
       </c>
     </row>
     <row r="341" spans="1:2">
@@ -10281,7 +10278,7 @@
         <v>341</v>
       </c>
       <c r="B342">
-        <v>6.0000000000000002E-6</v>
+        <v>1.06E-4</v>
       </c>
     </row>
     <row r="343" spans="1:2">
@@ -10289,7 +10286,7 @@
         <v>342</v>
       </c>
       <c r="B343">
-        <v>4.73E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="344" spans="1:2">
@@ -10297,7 +10294,7 @@
         <v>343</v>
       </c>
       <c r="B344">
-        <v>6.0000000000000002E-6</v>
+        <v>1.15E-4</v>
       </c>
     </row>
     <row r="345" spans="1:2">
@@ -10313,7 +10310,7 @@
         <v>345</v>
       </c>
       <c r="B346">
-        <v>6.0000000000000002E-6</v>
+        <v>1.2400000000000001E-4</v>
       </c>
     </row>
     <row r="347" spans="1:2">
@@ -10321,7 +10318,7 @@
         <v>346</v>
       </c>
       <c r="B347">
-        <v>5.4699999999999996E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="348" spans="1:2">
@@ -10329,7 +10326,7 @@
         <v>347</v>
       </c>
       <c r="B348">
-        <v>6.0000000000000002E-6</v>
+        <v>1.34E-4</v>
       </c>
     </row>
     <row r="349" spans="1:2">
@@ -10345,7 +10342,7 @@
         <v>349</v>
       </c>
       <c r="B350">
-        <v>6.0000000000000002E-6</v>
+        <v>1.46E-4</v>
       </c>
     </row>
     <row r="351" spans="1:2">
@@ -10353,7 +10350,7 @@
         <v>350</v>
       </c>
       <c r="B351">
-        <v>6.3900000000000003E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="352" spans="1:2">
@@ -10361,7 +10358,7 @@
         <v>351</v>
       </c>
       <c r="B352">
-        <v>6.0000000000000002E-6</v>
+        <v>1.5899999999999999E-4</v>
       </c>
     </row>
     <row r="353" spans="1:2">
@@ -10377,7 +10374,7 @@
         <v>353</v>
       </c>
       <c r="B354">
-        <v>6.0000000000000002E-6</v>
+        <v>1.73E-4</v>
       </c>
     </row>
     <row r="355" spans="1:2">
@@ -10385,7 +10382,7 @@
         <v>354</v>
       </c>
       <c r="B355">
-        <v>7.5699999999999997E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="356" spans="1:2">
@@ -10393,7 +10390,7 @@
         <v>355</v>
       </c>
       <c r="B356">
-        <v>6.0000000000000002E-6</v>
+        <v>1.9000000000000001E-4</v>
       </c>
     </row>
     <row r="357" spans="1:2">
@@ -10409,7 +10406,7 @@
         <v>357</v>
       </c>
       <c r="B358">
-        <v>6.0000000000000002E-6</v>
+        <v>2.0900000000000001E-4</v>
       </c>
     </row>
     <row r="359" spans="1:2">
@@ -10417,7 +10414,7 @@
         <v>358</v>
       </c>
       <c r="B359">
-        <v>9.0899999999999998E-4</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="360" spans="1:2">
@@ -10425,7 +10422,7 @@
         <v>359</v>
       </c>
       <c r="B360">
-        <v>6.0000000000000002E-6</v>
+        <v>2.31E-4</v>
       </c>
     </row>
     <row r="361" spans="1:2">
@@ -10441,7 +10438,7 @@
         <v>361</v>
       </c>
       <c r="B362">
-        <v>6.0000000000000002E-6</v>
+        <v>2.5599999999999999E-4</v>
       </c>
     </row>
     <row r="363" spans="1:2">
@@ -10449,7 +10446,7 @@
         <v>362</v>
       </c>
       <c r="B363">
-        <v>1.1130000000000001E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="364" spans="1:2">
@@ -10457,7 +10454,7 @@
         <v>363</v>
       </c>
       <c r="B364">
-        <v>6.0000000000000002E-6</v>
+        <v>2.8600000000000001E-4</v>
       </c>
     </row>
     <row r="365" spans="1:2">
@@ -10473,7 +10470,7 @@
         <v>365</v>
       </c>
       <c r="B366">
-        <v>6.0000000000000002E-6</v>
+        <v>3.21E-4</v>
       </c>
     </row>
     <row r="367" spans="1:2">
@@ -10481,7 +10478,7 @@
         <v>366</v>
       </c>
       <c r="B367">
-        <v>1.392E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="368" spans="1:2">
@@ -10489,7 +10486,7 @@
         <v>367</v>
       </c>
       <c r="B368">
-        <v>6.0000000000000002E-6</v>
+        <v>3.6200000000000002E-4</v>
       </c>
     </row>
     <row r="369" spans="1:2">
@@ -10505,7 +10502,7 @@
         <v>369</v>
       </c>
       <c r="B370">
-        <v>6.0000000000000002E-6</v>
+        <v>4.1100000000000002E-4</v>
       </c>
     </row>
     <row r="371" spans="1:2">
@@ -10513,7 +10510,7 @@
         <v>370</v>
       </c>
       <c r="B371">
-        <v>1.7910000000000001E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="372" spans="1:2">
@@ -10521,7 +10518,7 @@
         <v>371</v>
       </c>
       <c r="B372">
-        <v>6.0000000000000002E-6</v>
+        <v>4.7199999999999998E-4</v>
       </c>
     </row>
     <row r="373" spans="1:2">
@@ -10537,7 +10534,7 @@
         <v>373</v>
       </c>
       <c r="B374">
-        <v>6.0000000000000002E-6</v>
+        <v>5.4600000000000004E-4</v>
       </c>
     </row>
     <row r="375" spans="1:2">
@@ -10545,7 +10542,7 @@
         <v>374</v>
       </c>
       <c r="B375">
-        <v>2.3879999999999999E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="376" spans="1:2">
@@ -10553,7 +10550,7 @@
         <v>375</v>
       </c>
       <c r="B376">
-        <v>6.0000000000000002E-6</v>
+        <v>6.38E-4</v>
       </c>
     </row>
     <row r="377" spans="1:2">
@@ -10569,7 +10566,7 @@
         <v>377</v>
       </c>
       <c r="B378">
-        <v>6.0000000000000002E-6</v>
+        <v>7.5600000000000005E-4</v>
       </c>
     </row>
     <row r="379" spans="1:2">
@@ -10577,7 +10574,7 @@
         <v>378</v>
       </c>
       <c r="B379">
-        <v>3.339E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="380" spans="1:2">
@@ -10585,7 +10582,7 @@
         <v>379</v>
       </c>
       <c r="B380">
-        <v>6.0000000000000002E-6</v>
+        <v>9.0899999999999998E-4</v>
       </c>
     </row>
     <row r="381" spans="1:2">
@@ -10601,7 +10598,7 @@
         <v>381</v>
       </c>
       <c r="B382">
-        <v>6.0000000000000002E-6</v>
+        <v>1.1119999999999999E-3</v>
       </c>
     </row>
     <row r="383" spans="1:2">
@@ -10609,7 +10606,7 @@
         <v>382</v>
       </c>
       <c r="B383">
-        <v>4.993E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="384" spans="1:2">
@@ -10617,7 +10614,7 @@
         <v>383</v>
       </c>
       <c r="B384">
-        <v>6.0000000000000002E-6</v>
+        <v>1.392E-3</v>
       </c>
     </row>
     <row r="385" spans="1:2">
@@ -10633,7 +10630,7 @@
         <v>385</v>
       </c>
       <c r="B386">
-        <v>6.0000000000000002E-6</v>
+        <v>1.7910000000000001E-3</v>
       </c>
     </row>
     <row r="387" spans="1:2">
@@ -10641,7 +10638,7 @@
         <v>386</v>
       </c>
       <c r="B387">
-        <v>8.2609999999999992E-3</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="388" spans="1:2">
@@ -10649,7 +10646,7 @@
         <v>387</v>
       </c>
       <c r="B388">
-        <v>6.0000000000000002E-6</v>
+        <v>2.3879999999999999E-3</v>
       </c>
     </row>
     <row r="389" spans="1:2">
@@ -10665,7 +10662,7 @@
         <v>389</v>
       </c>
       <c r="B390">
-        <v>6.0000000000000002E-6</v>
+        <v>3.339E-3</v>
       </c>
     </row>
     <row r="391" spans="1:2">
@@ -10673,7 +10670,7 @@
         <v>390</v>
       </c>
       <c r="B391">
-        <v>1.6201E-2</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="392" spans="1:2">
@@ -10681,7 +10678,7 @@
         <v>391</v>
       </c>
       <c r="B392">
-        <v>6.0000000000000002E-6</v>
+        <v>4.993E-3</v>
       </c>
     </row>
     <row r="393" spans="1:2">
@@ -10697,7 +10694,7 @@
         <v>393</v>
       </c>
       <c r="B394">
-        <v>6.0000000000000002E-6</v>
+        <v>8.2609999999999992E-3</v>
       </c>
     </row>
     <row r="395" spans="1:2">
@@ -10705,7 +10702,7 @@
         <v>394</v>
       </c>
       <c r="B395">
-        <v>4.5020999999999999E-2</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="396" spans="1:2">
@@ -10713,7 +10710,7 @@
         <v>395</v>
       </c>
       <c r="B396">
-        <v>6.0000000000000002E-6</v>
+        <v>1.6201E-2</v>
       </c>
     </row>
     <row r="397" spans="1:2">
@@ -10729,7 +10726,7 @@
         <v>397</v>
       </c>
       <c r="B398">
-        <v>6.0000000000000002E-6</v>
+        <v>4.5020999999999999E-2</v>
       </c>
     </row>
     <row r="399" spans="1:2">
@@ -10737,7 +10734,7 @@
         <v>398</v>
       </c>
       <c r="B399">
-        <v>0.40527400000000002</v>
+        <v>6.0000000000000002E-6</v>
       </c>
     </row>
     <row r="400" spans="1:2">
@@ -10745,7 +10742,7 @@
         <v>399</v>
       </c>
       <c r="B400">
-        <v>6.0000000000000002E-6</v>
+        <v>0.40527400000000002</v>
       </c>
     </row>
   </sheetData>
